--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>EXPERIMENTOS</t>
   </si>
@@ -47,59 +47,36 @@
     <t>Tolerancia</t>
   </si>
   <si>
-    <t>FCM</t>
-  </si>
-  <si>
     <t>Espacio de color</t>
   </si>
   <si>
-    <t>Images/35070</t>
-  </si>
-  <si>
-    <t>Results/insecto</t>
-  </si>
-  <si>
-    <t>Results/insecto2</t>
-  </si>
-  <si>
-    <t>Results/insecto3</t>
-  </si>
-  <si>
-    <t>Results/insecto4</t>
-  </si>
-  <si>
     <t>RGB</t>
   </si>
   <si>
-    <t>L a b</t>
-  </si>
-  <si>
-    <t>Results/insecto5</t>
-  </si>
-  <si>
-    <t>Results/insecto6</t>
-  </si>
-  <si>
-    <t>Results/insecto7</t>
-  </si>
-  <si>
-    <t>Results/insecto8</t>
+    <t>showimage</t>
+  </si>
+  <si>
+    <t>leucolinf</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>metodo 1: k-means-Reagrupamiento-RGB-Mahalanobis</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>41004-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,10 +106,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,15 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
@@ -431,25 +408,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -469,162 +446,225 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>3.0482</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4">
+        <v>9.9550999999999998</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+      <c r="C6">
+        <v>60079</v>
+      </c>
+      <c r="F6">
+        <v>7.3141999999999996</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="C7">
+        <v>45096</v>
+      </c>
+      <c r="F7">
+        <v>2.2719999999999998</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
+      <c r="C8">
+        <v>188091</v>
+      </c>
+      <c r="F8">
+        <v>5.8066000000000004</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>3.2934000000000001</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>16</v>
+      <c r="C10" s="1">
+        <v>253036</v>
+      </c>
+      <c r="F10">
+        <v>4.5782999999999996</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>42049</v>
+      </c>
+      <c r="F11">
+        <v>4.3924000000000003</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>163014</v>
+      </c>
+      <c r="F13">
+        <v>3.8043</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>124084</v>
+      </c>
+      <c r="F14">
+        <v>2.0809000000000002</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>176035</v>
+      </c>
+      <c r="F15">
+        <v>3.0331000000000001</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>295087</v>
+      </c>
+      <c r="F16">
+        <v>4.1481000000000003</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>216066</v>
+      </c>
+      <c r="F17">
+        <v>4.5587999999999997</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>3.5859999999999999</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>388016</v>
+      </c>
+      <c r="F19">
+        <v>4.1205999999999996</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>385028</v>
+      </c>
+      <c r="F20">
+        <v>4.2629000000000001</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>225017</v>
+      </c>
+      <c r="F21">
+        <v>3.8323</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>113044</v>
+      </c>
+      <c r="F22">
+        <v>6.3635999999999999</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>EXPERIMENTOS</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>41004-2</t>
+  </si>
+  <si>
+    <t>fabric</t>
+  </si>
+  <si>
+    <t>metodo 2: k-means-Reagrupamiento-RGB-Mahalanobis</t>
+  </si>
+  <si>
+    <t>12375764_10154354426419428_2121622626_o</t>
   </si>
 </sst>
 </file>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,9 +474,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
       <c r="F4">
         <v>9.9550999999999998</v>
       </c>
@@ -476,9 +494,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
       <c r="F5">
         <v>1.9119999999999999</v>
       </c>
@@ -487,9 +514,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
       <c r="C6">
         <v>60079</v>
       </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
       <c r="F6">
         <v>7.3141999999999996</v>
       </c>
@@ -498,9 +534,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
       <c r="C7">
         <v>45096</v>
       </c>
+      <c r="E7">
+        <v>128</v>
+      </c>
       <c r="F7">
         <v>2.2719999999999998</v>
       </c>
@@ -509,9 +554,18 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
       <c r="C8">
         <v>188091</v>
       </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
       <c r="F8">
         <v>5.8066000000000004</v>
       </c>
@@ -520,9 +574,18 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
+      <c r="E9">
+        <v>128</v>
+      </c>
       <c r="F9">
         <v>3.2934000000000001</v>
       </c>
@@ -531,9 +594,18 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="1">
         <v>253036</v>
       </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
       <c r="F10">
         <v>4.5782999999999996</v>
       </c>
@@ -542,9 +614,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
       <c r="C11">
         <v>42049</v>
       </c>
+      <c r="E11">
+        <v>128</v>
+      </c>
       <c r="F11">
         <v>4.3924000000000003</v>
       </c>
@@ -553,14 +634,32 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
       <c r="D12">
         <v>12</v>
       </c>
+      <c r="E12">
+        <v>128</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
       <c r="C13">
         <v>163014</v>
       </c>
+      <c r="E13">
+        <v>128</v>
+      </c>
       <c r="F13">
         <v>3.8043</v>
       </c>
@@ -569,9 +668,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
       <c r="C14">
         <v>124084</v>
       </c>
+      <c r="E14">
+        <v>128</v>
+      </c>
       <c r="F14">
         <v>2.0809000000000002</v>
       </c>
@@ -580,9 +688,18 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
       <c r="C15">
         <v>176035</v>
       </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
       <c r="F15">
         <v>3.0331000000000001</v>
       </c>
@@ -591,9 +708,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
       <c r="C16">
         <v>295087</v>
       </c>
+      <c r="E16">
+        <v>128</v>
+      </c>
       <c r="F16">
         <v>4.1481000000000003</v>
       </c>
@@ -601,10 +727,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
       <c r="C17">
         <v>216066</v>
       </c>
+      <c r="E17">
+        <v>128</v>
+      </c>
       <c r="F17">
         <v>4.5587999999999997</v>
       </c>
@@ -612,10 +747,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
+      <c r="E18">
+        <v>128</v>
+      </c>
       <c r="F18">
         <v>3.5859999999999999</v>
       </c>
@@ -623,10 +767,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
       <c r="C19">
         <v>388016</v>
       </c>
+      <c r="E19">
+        <v>128</v>
+      </c>
       <c r="F19">
         <v>4.1205999999999996</v>
       </c>
@@ -634,10 +787,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
       <c r="C20">
         <v>385028</v>
       </c>
+      <c r="E20">
+        <v>128</v>
+      </c>
       <c r="F20">
         <v>4.2629000000000001</v>
       </c>
@@ -645,10 +807,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
       <c r="C21">
         <v>225017</v>
       </c>
+      <c r="E21">
+        <v>128</v>
+      </c>
       <c r="F21">
         <v>3.8323</v>
       </c>
@@ -656,15 +827,110 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
       <c r="C22">
         <v>113044</v>
       </c>
+      <c r="E22">
+        <v>128</v>
+      </c>
       <c r="F22">
         <v>6.3635999999999999</v>
       </c>
       <c r="G22">
         <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <v>2.1093999999999999</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>2.8155000000000001</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>113044</v>
+      </c>
+      <c r="F25">
+        <v>3.3246000000000002</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>225017</v>
+      </c>
+      <c r="F26">
+        <v>2.0082</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>385028</v>
+      </c>
+      <c r="F27">
+        <v>2.2035999999999998</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>388016</v>
+      </c>
+      <c r="F28">
+        <v>2.3083999999999998</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>1.8198000000000001</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>EXPERIMENTOS</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>12375764_10154354426419428_2121622626_o</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>linfocitos1</t>
+  </si>
+  <si>
+    <t>10472953_992127864183797_1990666493_n</t>
   </si>
 </sst>
 </file>
@@ -399,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,6 +880,9 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
+      <c r="E24">
+        <v>64</v>
+      </c>
       <c r="F24">
         <v>2.8155000000000001</v>
       </c>
@@ -882,6 +894,9 @@
       <c r="C25">
         <v>113044</v>
       </c>
+      <c r="E25">
+        <v>64</v>
+      </c>
       <c r="F25">
         <v>3.3246000000000002</v>
       </c>
@@ -893,6 +908,9 @@
       <c r="C26">
         <v>225017</v>
       </c>
+      <c r="E26">
+        <v>64</v>
+      </c>
       <c r="F26">
         <v>2.0082</v>
       </c>
@@ -904,6 +922,9 @@
       <c r="C27">
         <v>385028</v>
       </c>
+      <c r="E27">
+        <v>64</v>
+      </c>
       <c r="F27">
         <v>2.2035999999999998</v>
       </c>
@@ -915,6 +936,9 @@
       <c r="C28">
         <v>388016</v>
       </c>
+      <c r="E28">
+        <v>64</v>
+      </c>
       <c r="F28">
         <v>2.3083999999999998</v>
       </c>
@@ -926,11 +950,280 @@
       <c r="C29" t="s">
         <v>14</v>
       </c>
+      <c r="E29">
+        <v>64</v>
+      </c>
       <c r="F29">
         <v>1.8198000000000001</v>
       </c>
       <c r="G29">
         <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>216066</v>
+      </c>
+      <c r="E30">
+        <v>64</v>
+      </c>
+      <c r="F30">
+        <v>3.0548000000000002</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>295087</v>
+      </c>
+      <c r="E31">
+        <v>64</v>
+      </c>
+      <c r="F31">
+        <v>2.0613999999999999</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>176035</v>
+      </c>
+      <c r="E32">
+        <v>64</v>
+      </c>
+      <c r="F32">
+        <v>1.6104000000000001</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>296059</v>
+      </c>
+      <c r="E33">
+        <v>64</v>
+      </c>
+      <c r="F33">
+        <v>2.7111000000000001</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>124084</v>
+      </c>
+      <c r="E34">
+        <v>64</v>
+      </c>
+      <c r="F34">
+        <v>1.0268999999999999</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>163014</v>
+      </c>
+      <c r="E35">
+        <v>64</v>
+      </c>
+      <c r="F35">
+        <v>2.3742000000000001</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>35070</v>
+      </c>
+      <c r="E36">
+        <v>64</v>
+      </c>
+      <c r="F36">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>42049</v>
+      </c>
+      <c r="E37">
+        <v>64</v>
+      </c>
+      <c r="F37">
+        <v>2.2507999999999999</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>253036</v>
+      </c>
+      <c r="E38">
+        <v>64</v>
+      </c>
+      <c r="F38">
+        <v>2.5701999999999998</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>64</v>
+      </c>
+      <c r="F39">
+        <v>1.7512000000000001</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>188091</v>
+      </c>
+      <c r="E40">
+        <v>64</v>
+      </c>
+      <c r="F40">
+        <v>2.6861000000000002</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>45096</v>
+      </c>
+      <c r="E41">
+        <v>64</v>
+      </c>
+      <c r="F41">
+        <v>1.0215000000000001</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>60079</v>
+      </c>
+      <c r="E42">
+        <v>64</v>
+      </c>
+      <c r="F42">
+        <v>4.1104000000000003</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>64</v>
+      </c>
+      <c r="F43">
+        <v>0.82157999999999998</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>64</v>
+      </c>
+      <c r="F44">
+        <v>1.2588999999999999</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>64</v>
+      </c>
+      <c r="F45">
+        <v>4.5297999999999998</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>135069</v>
+      </c>
+      <c r="E46">
+        <v>64</v>
+      </c>
+      <c r="F46">
+        <v>2.6396000000000002</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47">
+        <v>64</v>
+      </c>
+      <c r="F47">
+        <v>5.4508999999999999</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>64</v>
+      </c>
+      <c r="F48">
+        <v>1.2169000000000001</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
   <si>
     <t>EXPERIMENTOS</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>10472953_992127864183797_1990666493_n</t>
+  </si>
+  <si>
+    <t>metodo 3: k-means-Reagrupamiento-RGB-DeltaE2000</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,6 +880,12 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -891,6 +900,12 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
       <c r="C25">
         <v>113044</v>
       </c>
@@ -905,6 +920,12 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
       <c r="C26">
         <v>225017</v>
       </c>
@@ -919,6 +940,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
       <c r="C27">
         <v>385028</v>
       </c>
@@ -933,6 +960,12 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
       <c r="C28">
         <v>388016</v>
       </c>
@@ -947,6 +980,12 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -961,6 +1000,12 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
       <c r="C30">
         <v>216066</v>
       </c>
@@ -975,6 +1020,12 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
       <c r="C31">
         <v>295087</v>
       </c>
@@ -989,6 +1040,12 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
       <c r="C32">
         <v>176035</v>
       </c>
@@ -1002,7 +1059,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
       <c r="C33">
         <v>296059</v>
       </c>
@@ -1016,7 +1079,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
       <c r="C34">
         <v>124084</v>
       </c>
@@ -1030,7 +1099,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
       <c r="C35">
         <v>163014</v>
       </c>
@@ -1044,7 +1119,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
       <c r="C36">
         <v>35070</v>
       </c>
@@ -1058,7 +1139,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
       <c r="C37">
         <v>42049</v>
       </c>
@@ -1072,7 +1159,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
       <c r="C38">
         <v>253036</v>
       </c>
@@ -1086,7 +1179,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1199,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
       <c r="C40">
         <v>188091</v>
       </c>
@@ -1114,7 +1219,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
       <c r="C41">
         <v>45096</v>
       </c>
@@ -1128,7 +1239,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
       <c r="C42">
         <v>60079</v>
       </c>
@@ -1142,7 +1259,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
       <c r="C43" t="s">
         <v>18</v>
       </c>
@@ -1156,7 +1279,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1299,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
       <c r="C45" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1319,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
       <c r="C46">
         <v>135069</v>
       </c>
@@ -1198,7 +1339,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1359,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
       <c r="C48" t="s">
         <v>20</v>
       </c>
@@ -1224,6 +1377,92 @@
       </c>
       <c r="G48">
         <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>32</v>
+      </c>
+      <c r="F49">
+        <v>14.9137</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>11.462300000000001</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>135069</v>
+      </c>
+      <c r="F51">
+        <v>20.742699999999999</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>10.0038</v>
+      </c>
+      <c r="G52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>21.415700000000001</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>28.332999999999998</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>60079</v>
+      </c>
+      <c r="F55">
+        <v>11.0229</v>
+      </c>
+      <c r="G55">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="22">
   <si>
     <t>EXPERIMENTOS</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,6 +1465,149 @@
         <v>7</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>45096</v>
+      </c>
+      <c r="F56">
+        <v>53.078000000000003</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>188091</v>
+      </c>
+      <c r="F57">
+        <v>24.049600000000002</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58">
+        <v>38.966500000000003</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>253036</v>
+      </c>
+      <c r="F59">
+        <v>28.33</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>42049</v>
+      </c>
+      <c r="F60">
+        <v>24.692299999999999</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>35070</v>
+      </c>
+      <c r="F61">
+        <v>17.706499999999998</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>163014</v>
+      </c>
+      <c r="F62">
+        <v>18.2836</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>124084</v>
+      </c>
+      <c r="F63">
+        <v>51.0747</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>296059</v>
+      </c>
+      <c r="F64">
+        <v>19.521699999999999</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>176035</v>
+      </c>
+      <c r="F65">
+        <v>39.887500000000003</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>295087</v>
+      </c>
+      <c r="F66">
+        <v>20.520399999999999</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>216066</v>
+      </c>
+      <c r="F67">
+        <v>16.633900000000001</v>
+      </c>
+      <c r="G67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>36.705500000000001</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="22">
   <si>
     <t>EXPERIMENTOS</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,6 +1608,116 @@
         <v>2</v>
       </c>
     </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>388016</v>
+      </c>
+      <c r="F69">
+        <v>24.029699999999998</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>225017</v>
+      </c>
+      <c r="F70">
+        <v>31.9802</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>113044</v>
+      </c>
+      <c r="F71">
+        <v>19.010899999999999</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72">
+        <v>23.587499999999999</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <v>20.681799999999999</v>
+      </c>
+      <c r="G73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>9.7666000000000004</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75">
+        <v>5.0885999999999996</v>
+      </c>
+      <c r="G75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>135069</v>
+      </c>
+      <c r="F76">
+        <v>12.0886</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>4.7206999999999999</v>
+      </c>
+      <c r="G77">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>21.145600000000002</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="22">
   <si>
     <t>EXPERIMENTOS</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,6 +1718,116 @@
         <v>4</v>
       </c>
     </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79">
+        <v>28.3733</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>60079</v>
+      </c>
+      <c r="F80">
+        <v>6.3574999999999999</v>
+      </c>
+      <c r="G80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>45096</v>
+      </c>
+      <c r="F81">
+        <v>27.905799999999999</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>188091</v>
+      </c>
+      <c r="F82">
+        <v>10.9636</v>
+      </c>
+      <c r="G82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83">
+        <v>20.583500000000001</v>
+      </c>
+      <c r="G83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>253036</v>
+      </c>
+      <c r="F84">
+        <v>13.8782</v>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>42049</v>
+      </c>
+      <c r="F85">
+        <v>13.3101</v>
+      </c>
+      <c r="G85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>35070</v>
+      </c>
+      <c r="F86">
+        <v>9.7677999999999994</v>
+      </c>
+      <c r="G86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>163014</v>
+      </c>
+      <c r="F87">
+        <v>10.9528</v>
+      </c>
+      <c r="G87">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>124084</v>
+      </c>
+      <c r="F88">
+        <v>26.652000000000001</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="27">
   <si>
     <t>EXPERIMENTOS</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Centroides iniciales</t>
-  </si>
-  <si>
-    <t>CentroidesResultantes</t>
   </si>
   <si>
     <t>Tolerancia</t>
@@ -91,12 +88,30 @@
   <si>
     <t>metodo 3: k-means-Reagrupamiento-RGB-DeltaE2000</t>
   </si>
+  <si>
+    <t xml:space="preserve">fabric </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>metodo 5 litekamnes mahalanoobis- regrupamiento detlaE2000</t>
+  </si>
+  <si>
+    <t>descarga</t>
+  </si>
+  <si>
+    <t>Centroides Resultantes</t>
+  </si>
+  <si>
+    <t>jouzawarusaidi1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +119,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aharoni"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -121,15 +192,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -137,6 +323,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -411,71 +602,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="1.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>128</v>
       </c>
       <c r="F3">
@@ -486,16 +677,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <v>128</v>
       </c>
       <c r="F4">
@@ -506,16 +697,16 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
         <v>128</v>
       </c>
       <c r="F5">
@@ -526,16 +717,16 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
         <v>60079</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>128</v>
       </c>
       <c r="F6">
@@ -546,16 +737,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
         <v>45096</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>128</v>
       </c>
       <c r="F7">
@@ -566,16 +757,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
         <v>188091</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>128</v>
       </c>
       <c r="F8">
@@ -586,16 +777,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>128</v>
       </c>
       <c r="F9">
@@ -606,16 +797,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
         <v>253036</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>128</v>
       </c>
       <c r="F10">
@@ -626,16 +817,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
         <v>42049</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>128</v>
       </c>
       <c r="F11">
@@ -646,50 +837,51 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
         <v>163014</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>128</v>
       </c>
       <c r="F13">
         <v>3.8043</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
         <v>124084</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>128</v>
       </c>
       <c r="F14">
@@ -700,16 +892,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
         <v>176035</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>128</v>
       </c>
       <c r="F15">
@@ -720,16 +912,16 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3">
         <v>295087</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>128</v>
       </c>
       <c r="F16">
@@ -740,16 +932,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
         <v>216066</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>128</v>
       </c>
       <c r="F17">
@@ -760,16 +952,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5">
         <v>128</v>
       </c>
       <c r="F18">
@@ -780,16 +972,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
         <v>388016</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>128</v>
       </c>
       <c r="F19">
@@ -800,16 +992,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3">
         <v>385028</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>128</v>
       </c>
       <c r="F20">
@@ -820,16 +1012,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3">
         <v>225017</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>128</v>
       </c>
       <c r="F21">
@@ -840,16 +1032,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3">
         <v>113044</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>128</v>
       </c>
       <c r="F22">
@@ -860,16 +1052,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E23">
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="14">
         <v>64</v>
       </c>
       <c r="F23">
@@ -880,16 +1072,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
+      <c r="E24" s="14">
         <v>64</v>
       </c>
       <c r="F24">
@@ -900,16 +1092,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3">
         <v>113044</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="14">
         <v>64</v>
       </c>
       <c r="F25">
@@ -920,16 +1112,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
         <v>225017</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="14">
         <v>64</v>
       </c>
       <c r="F26">
@@ -940,16 +1132,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3">
         <v>385028</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="14">
         <v>64</v>
       </c>
       <c r="F27">
@@ -960,16 +1152,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
+      <c r="A28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
         <v>388016</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="14">
         <v>64</v>
       </c>
       <c r="F28">
@@ -980,16 +1172,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="14">
         <v>64</v>
       </c>
       <c r="F29">
@@ -1000,16 +1192,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30">
+      <c r="A30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
         <v>216066</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="14">
         <v>64</v>
       </c>
       <c r="F30">
@@ -1020,16 +1212,16 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
+      <c r="A31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3">
         <v>295087</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="14">
         <v>64</v>
       </c>
       <c r="F31">
@@ -1040,16 +1232,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32">
+      <c r="A32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3">
         <v>176035</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="14">
         <v>64</v>
       </c>
       <c r="F32">
@@ -1060,16 +1252,16 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33">
+      <c r="A33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3">
         <v>296059</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="14">
         <v>64</v>
       </c>
       <c r="F33">
@@ -1080,16 +1272,16 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
         <v>124084</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="14">
         <v>64</v>
       </c>
       <c r="F34">
@@ -1100,16 +1292,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35">
+      <c r="A35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
         <v>163014</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="14">
         <v>64</v>
       </c>
       <c r="F35">
@@ -1120,16 +1312,16 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
+      <c r="A36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3">
         <v>35070</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="14">
         <v>64</v>
       </c>
       <c r="F36">
@@ -1140,16 +1332,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37">
+      <c r="A37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
         <v>42049</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="14">
         <v>64</v>
       </c>
       <c r="F37">
@@ -1160,16 +1352,16 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38">
+      <c r="A38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3">
         <v>253036</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="14">
         <v>64</v>
       </c>
       <c r="F38">
@@ -1180,16 +1372,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39">
+      <c r="A39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="14">
         <v>64</v>
       </c>
       <c r="F39">
@@ -1200,16 +1392,16 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
+      <c r="A40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
         <v>188091</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="14">
         <v>64</v>
       </c>
       <c r="F40">
@@ -1220,16 +1412,16 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
+      <c r="A41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
         <v>45096</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="14">
         <v>64</v>
       </c>
       <c r="F41">
@@ -1240,16 +1432,16 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42">
+      <c r="A42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3">
         <v>60079</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="14">
         <v>64</v>
       </c>
       <c r="F42">
@@ -1260,16 +1452,16 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43">
+      <c r="A43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="14">
         <v>64</v>
       </c>
       <c r="F43">
@@ -1280,16 +1472,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44">
+      <c r="E44" s="14">
         <v>64</v>
       </c>
       <c r="F44">
@@ -1300,16 +1492,16 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45">
+      <c r="A45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="14">
         <v>64</v>
       </c>
       <c r="F45">
@@ -1320,16 +1512,16 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46">
+      <c r="A46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3">
         <v>135069</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="14">
         <v>64</v>
       </c>
       <c r="F46">
@@ -1340,16 +1532,16 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47">
+      <c r="A47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="14">
         <v>64</v>
       </c>
       <c r="F47">
@@ -1360,16 +1552,16 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48">
+      <c r="A48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="14">
         <v>64</v>
       </c>
       <c r="F48">
@@ -1380,16 +1572,16 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="15">
         <v>32</v>
       </c>
       <c r="F49">
@@ -1400,8 +1592,17 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>19</v>
+      <c r="A50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="15">
+        <v>32</v>
       </c>
       <c r="F50">
         <v>11.462300000000001</v>
@@ -1411,8 +1612,17 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C51">
+      <c r="A51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3">
         <v>135069</v>
+      </c>
+      <c r="E51" s="15">
+        <v>32</v>
       </c>
       <c r="F51">
         <v>20.742699999999999</v>
@@ -1422,8 +1632,17 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>10</v>
+      <c r="A52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="15">
+        <v>32</v>
       </c>
       <c r="F52">
         <v>10.0038</v>
@@ -1433,8 +1652,17 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>9</v>
+      <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="15">
+        <v>32</v>
       </c>
       <c r="F53">
         <v>21.415700000000001</v>
@@ -1444,8 +1672,17 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>11</v>
+      <c r="A54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="15">
+        <v>32</v>
       </c>
       <c r="F54">
         <v>28.332999999999998</v>
@@ -1455,8 +1692,17 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55">
+      <c r="A55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3">
         <v>60079</v>
+      </c>
+      <c r="E55" s="15">
+        <v>32</v>
       </c>
       <c r="F55">
         <v>11.0229</v>
@@ -1466,8 +1712,17 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C56">
+      <c r="A56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="3">
         <v>45096</v>
+      </c>
+      <c r="E56" s="15">
+        <v>32</v>
       </c>
       <c r="F56">
         <v>53.078000000000003</v>
@@ -1477,8 +1732,17 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C57">
+      <c r="A57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3">
         <v>188091</v>
+      </c>
+      <c r="E57" s="15">
+        <v>32</v>
       </c>
       <c r="F57">
         <v>24.049600000000002</v>
@@ -1488,8 +1752,17 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>13</v>
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="15">
+        <v>32</v>
       </c>
       <c r="F58">
         <v>38.966500000000003</v>
@@ -1499,8 +1772,17 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C59">
+      <c r="A59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="3">
         <v>253036</v>
+      </c>
+      <c r="E59" s="15">
+        <v>32</v>
       </c>
       <c r="F59">
         <v>28.33</v>
@@ -1510,8 +1792,17 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C60">
+      <c r="A60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="3">
         <v>42049</v>
+      </c>
+      <c r="E60" s="15">
+        <v>32</v>
       </c>
       <c r="F60">
         <v>24.692299999999999</v>
@@ -1521,8 +1812,17 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C61">
+      <c r="A61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="3">
         <v>35070</v>
+      </c>
+      <c r="E61" s="15">
+        <v>32</v>
       </c>
       <c r="F61">
         <v>17.706499999999998</v>
@@ -1532,8 +1832,17 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C62">
+      <c r="A62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="3">
         <v>163014</v>
+      </c>
+      <c r="E62" s="15">
+        <v>32</v>
       </c>
       <c r="F62">
         <v>18.2836</v>
@@ -1543,8 +1852,17 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C63">
+      <c r="A63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3">
         <v>124084</v>
+      </c>
+      <c r="E63" s="15">
+        <v>32</v>
       </c>
       <c r="F63">
         <v>51.0747</v>
@@ -1554,8 +1872,17 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C64">
+      <c r="A64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="3">
         <v>296059</v>
+      </c>
+      <c r="E64" s="15">
+        <v>32</v>
       </c>
       <c r="F64">
         <v>19.521699999999999</v>
@@ -1564,9 +1891,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="3">
         <v>176035</v>
+      </c>
+      <c r="E65" s="15">
+        <v>32</v>
       </c>
       <c r="F65">
         <v>39.887500000000003</v>
@@ -1575,9 +1911,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="3">
         <v>295087</v>
+      </c>
+      <c r="E66" s="15">
+        <v>32</v>
       </c>
       <c r="F66">
         <v>20.520399999999999</v>
@@ -1586,9 +1931,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="3">
         <v>216066</v>
+      </c>
+      <c r="E67" s="15">
+        <v>32</v>
       </c>
       <c r="F67">
         <v>16.633900000000001</v>
@@ -1597,9 +1951,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>14</v>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="15">
+        <v>32</v>
       </c>
       <c r="F68">
         <v>36.705500000000001</v>
@@ -1608,9 +1971,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="3">
         <v>388016</v>
+      </c>
+      <c r="E69" s="15">
+        <v>32</v>
       </c>
       <c r="F69">
         <v>24.029699999999998</v>
@@ -1619,9 +1991,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="3">
         <v>225017</v>
+      </c>
+      <c r="E70" s="15">
+        <v>32</v>
       </c>
       <c r="F70">
         <v>31.9802</v>
@@ -1630,9 +2011,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="3">
         <v>113044</v>
+      </c>
+      <c r="E71" s="15">
+        <v>32</v>
       </c>
       <c r="F71">
         <v>19.010899999999999</v>
@@ -1641,9 +2031,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>17</v>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="15">
+        <v>32</v>
       </c>
       <c r="F72">
         <v>23.587499999999999</v>
@@ -1652,9 +2051,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>15</v>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="15">
+        <v>32</v>
       </c>
       <c r="F73">
         <v>20.681799999999999</v>
@@ -1663,9 +2071,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>20</v>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="15">
+        <v>32</v>
       </c>
       <c r="F74">
         <v>9.7666000000000004</v>
@@ -1674,9 +2091,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>19</v>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="15">
+        <v>32</v>
       </c>
       <c r="F75">
         <v>5.0885999999999996</v>
@@ -1685,9 +2111,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3">
         <v>135069</v>
+      </c>
+      <c r="E76" s="15">
+        <v>32</v>
       </c>
       <c r="F76">
         <v>12.0886</v>
@@ -1696,9 +2131,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>10</v>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="15">
+        <v>32</v>
       </c>
       <c r="F77">
         <v>4.7206999999999999</v>
@@ -1707,9 +2151,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>9</v>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="15">
+        <v>32</v>
       </c>
       <c r="F78">
         <v>21.145600000000002</v>
@@ -1718,9 +2171,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>18</v>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="15">
+        <v>32</v>
       </c>
       <c r="F79">
         <v>28.3733</v>
@@ -1729,9 +2191,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3">
         <v>60079</v>
+      </c>
+      <c r="E80" s="15">
+        <v>32</v>
       </c>
       <c r="F80">
         <v>6.3574999999999999</v>
@@ -1740,9 +2211,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3">
         <v>45096</v>
+      </c>
+      <c r="E81" s="15">
+        <v>32</v>
       </c>
       <c r="F81">
         <v>27.905799999999999</v>
@@ -1751,9 +2231,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="3">
         <v>188091</v>
+      </c>
+      <c r="E82" s="15">
+        <v>32</v>
       </c>
       <c r="F82">
         <v>10.9636</v>
@@ -1762,9 +2251,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>13</v>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="15">
+        <v>32</v>
       </c>
       <c r="F83">
         <v>20.583500000000001</v>
@@ -1773,9 +2271,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="3">
         <v>253036</v>
+      </c>
+      <c r="E84" s="15">
+        <v>32</v>
       </c>
       <c r="F84">
         <v>13.8782</v>
@@ -1784,9 +2291,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="3">
         <v>42049</v>
+      </c>
+      <c r="E85" s="15">
+        <v>32</v>
       </c>
       <c r="F85">
         <v>13.3101</v>
@@ -1795,9 +2311,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="3">
         <v>35070</v>
+      </c>
+      <c r="E86" s="15">
+        <v>32</v>
       </c>
       <c r="F86">
         <v>9.7677999999999994</v>
@@ -1806,9 +2331,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="3">
         <v>163014</v>
+      </c>
+      <c r="E87" s="15">
+        <v>32</v>
       </c>
       <c r="F87">
         <v>10.9528</v>
@@ -1817,15 +2351,839 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3">
         <v>124084</v>
+      </c>
+      <c r="E88" s="15">
+        <v>32</v>
       </c>
       <c r="F88">
         <v>26.652000000000001</v>
       </c>
       <c r="G88">
         <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="3">
+        <v>296059</v>
+      </c>
+      <c r="E89" s="15">
+        <v>32</v>
+      </c>
+      <c r="F89">
+        <v>8.9710999999999999</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="3">
+        <v>176035</v>
+      </c>
+      <c r="E90" s="15">
+        <v>32</v>
+      </c>
+      <c r="F90">
+        <v>22.162099999999999</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="3">
+        <v>295087</v>
+      </c>
+      <c r="E91" s="15">
+        <v>32</v>
+      </c>
+      <c r="F91">
+        <v>10.6785</v>
+      </c>
+      <c r="G91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="3">
+        <v>216066</v>
+      </c>
+      <c r="E92" s="15">
+        <v>32</v>
+      </c>
+      <c r="F92">
+        <v>8.9321999999999999</v>
+      </c>
+      <c r="G92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="15">
+        <v>32</v>
+      </c>
+      <c r="F93">
+        <v>20.225200000000001</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="3">
+        <v>388016</v>
+      </c>
+      <c r="E94" s="15">
+        <v>32</v>
+      </c>
+      <c r="F94">
+        <v>11.964</v>
+      </c>
+      <c r="G94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="3">
+        <v>385028</v>
+      </c>
+      <c r="E95" s="15">
+        <v>32</v>
+      </c>
+      <c r="F95">
+        <v>14.8315</v>
+      </c>
+      <c r="G95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="3">
+        <v>225017</v>
+      </c>
+      <c r="E96" s="15">
+        <v>32</v>
+      </c>
+      <c r="F96">
+        <v>15.7087</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="3">
+        <v>113044</v>
+      </c>
+      <c r="E97" s="15">
+        <v>32</v>
+      </c>
+      <c r="F97">
+        <v>9.7120999999999995</v>
+      </c>
+      <c r="G97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="15">
+        <v>32</v>
+      </c>
+      <c r="F98">
+        <v>10.585000000000001</v>
+      </c>
+      <c r="G98">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="15">
+        <v>32</v>
+      </c>
+      <c r="F99" s="1">
+        <v>10.252700000000001</v>
+      </c>
+      <c r="G99">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="15">
+        <v>32</v>
+      </c>
+      <c r="F100">
+        <v>15.888199999999999</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="15">
+        <v>32</v>
+      </c>
+      <c r="F101">
+        <v>7.1969000000000003</v>
+      </c>
+      <c r="G101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="3">
+        <v>135069</v>
+      </c>
+      <c r="E102" s="15">
+        <v>32</v>
+      </c>
+      <c r="F102">
+        <v>22.7988</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="15">
+        <v>32</v>
+      </c>
+      <c r="F103">
+        <v>8.0856999999999992</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="15">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>12.895799999999999</v>
+      </c>
+      <c r="G104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="15">
+        <v>32</v>
+      </c>
+      <c r="F105">
+        <v>53.85</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="3">
+        <v>60079</v>
+      </c>
+      <c r="E106" s="15">
+        <v>32</v>
+      </c>
+      <c r="F106">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="3">
+        <v>45096</v>
+      </c>
+      <c r="E107" s="15">
+        <v>32</v>
+      </c>
+      <c r="F107">
+        <v>39.290700000000001</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="3">
+        <v>253036</v>
+      </c>
+      <c r="E108" s="15">
+        <v>32</v>
+      </c>
+      <c r="F108">
+        <v>36.1496</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="3">
+        <v>42049</v>
+      </c>
+      <c r="E109" s="15">
+        <v>32</v>
+      </c>
+      <c r="F109">
+        <v>23.474699999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="3">
+        <v>35070</v>
+      </c>
+      <c r="E110" s="15">
+        <v>32</v>
+      </c>
+      <c r="F110">
+        <v>17.233899999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="3">
+        <v>101087</v>
+      </c>
+      <c r="E111" s="15">
+        <v>32</v>
+      </c>
+      <c r="F111">
+        <v>23.902100000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="3">
+        <v>163014</v>
+      </c>
+      <c r="E112" s="15">
+        <v>32</v>
+      </c>
+      <c r="F112">
+        <v>17.914000000000001</v>
+      </c>
+      <c r="G112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="3">
+        <v>124084</v>
+      </c>
+      <c r="E113" s="15">
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>61.164000000000001</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="3">
+        <v>296059</v>
+      </c>
+      <c r="E114" s="15">
+        <v>32</v>
+      </c>
+      <c r="F114">
+        <v>13.462899999999999</v>
+      </c>
+      <c r="G114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3">
+        <v>176035</v>
+      </c>
+      <c r="E115" s="15">
+        <v>32</v>
+      </c>
+      <c r="F115">
+        <v>41.357599999999998</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3">
+        <v>295087</v>
+      </c>
+      <c r="E116" s="15">
+        <v>32</v>
+      </c>
+      <c r="F116">
+        <v>22.541799999999999</v>
+      </c>
+      <c r="G116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3">
+        <v>216066</v>
+      </c>
+      <c r="E117" s="15">
+        <v>32</v>
+      </c>
+      <c r="F117">
+        <v>13.357699999999999</v>
+      </c>
+      <c r="G117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="15">
+        <v>32</v>
+      </c>
+      <c r="F118">
+        <v>38.679600000000001</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3">
+        <v>388016</v>
+      </c>
+      <c r="E119" s="15">
+        <v>32</v>
+      </c>
+      <c r="F119">
+        <v>24.6572</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3">
+        <v>385028</v>
+      </c>
+      <c r="E120" s="15">
+        <v>32</v>
+      </c>
+      <c r="F120">
+        <v>22.704899999999999</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3">
+        <v>225017</v>
+      </c>
+      <c r="E121" s="15">
+        <v>32</v>
+      </c>
+      <c r="F121">
+        <v>30.4923</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3">
+        <v>113044</v>
+      </c>
+      <c r="E122" s="15">
+        <v>32</v>
+      </c>
+      <c r="F122">
+        <v>18.5199</v>
+      </c>
+      <c r="G122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="15">
+        <v>32</v>
+      </c>
+      <c r="F123">
+        <v>15.740600000000001</v>
+      </c>
+      <c r="G123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="15">
+        <v>32</v>
+      </c>
+      <c r="F124">
+        <v>32.049399999999999</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="15">
+        <v>32</v>
+      </c>
+      <c r="F125">
+        <v>17.920200000000001</v>
+      </c>
+      <c r="G125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="15">
+        <v>64</v>
+      </c>
+      <c r="F126">
+        <v>7.2176999999999998</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>2960592</v>
+      </c>
+      <c r="E127" s="15">
+        <v>64</v>
+      </c>
+      <c r="F127">
+        <v>6.4968000000000004</v>
+      </c>
+      <c r="G127">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="15">
+        <v>64</v>
+      </c>
+      <c r="F128">
+        <v>8.8086000000000002</v>
+      </c>
+      <c r="G128">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>135069</v>
+      </c>
+      <c r="E129" s="15">
+        <v>64</v>
+      </c>
+      <c r="F129">
+        <v>9.9253</v>
+      </c>
+      <c r="G129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="15">
+        <v>64</v>
+      </c>
+      <c r="F130">
+        <v>25.959</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="15">
+        <v>64</v>
+      </c>
+      <c r="F131">
+        <v>6.4637000000000002</v>
+      </c>
+      <c r="G131">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -303,6 +303,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -311,11 +316,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,18 +620,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -867,7 +867,7 @@
       <c r="F13">
         <v>3.8043</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <v>4</v>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>64</v>
       </c>
       <c r="F23">
@@ -1081,7 +1081,7 @@
       <c r="C24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="11">
         <v>64</v>
       </c>
       <c r="F24">
@@ -1101,7 +1101,7 @@
       <c r="C25" s="3">
         <v>113044</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>64</v>
       </c>
       <c r="F25">
@@ -1121,7 +1121,7 @@
       <c r="C26" s="3">
         <v>225017</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>64</v>
       </c>
       <c r="F26">
@@ -1141,7 +1141,7 @@
       <c r="C27" s="3">
         <v>385028</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>64</v>
       </c>
       <c r="F27">
@@ -1161,7 +1161,7 @@
       <c r="C28" s="3">
         <v>388016</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="11">
         <v>64</v>
       </c>
       <c r="F28">
@@ -1181,7 +1181,7 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="11">
         <v>64</v>
       </c>
       <c r="F29">
@@ -1201,7 +1201,7 @@
       <c r="C30" s="3">
         <v>216066</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="11">
         <v>64</v>
       </c>
       <c r="F30">
@@ -1221,7 +1221,7 @@
       <c r="C31" s="3">
         <v>295087</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="11">
         <v>64</v>
       </c>
       <c r="F31">
@@ -1241,7 +1241,7 @@
       <c r="C32" s="3">
         <v>176035</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="11">
         <v>64</v>
       </c>
       <c r="F32">
@@ -1261,7 +1261,7 @@
       <c r="C33" s="3">
         <v>296059</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="11">
         <v>64</v>
       </c>
       <c r="F33">
@@ -1281,7 +1281,7 @@
       <c r="C34" s="3">
         <v>124084</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="11">
         <v>64</v>
       </c>
       <c r="F34">
@@ -1301,7 +1301,7 @@
       <c r="C35" s="3">
         <v>163014</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="11">
         <v>64</v>
       </c>
       <c r="F35">
@@ -1321,7 +1321,7 @@
       <c r="C36" s="3">
         <v>35070</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="11">
         <v>64</v>
       </c>
       <c r="F36">
@@ -1341,7 +1341,7 @@
       <c r="C37" s="3">
         <v>42049</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="11">
         <v>64</v>
       </c>
       <c r="F37">
@@ -1361,7 +1361,7 @@
       <c r="C38" s="3">
         <v>253036</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="11">
         <v>64</v>
       </c>
       <c r="F38">
@@ -1381,7 +1381,7 @@
       <c r="C39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="11">
         <v>64</v>
       </c>
       <c r="F39">
@@ -1401,7 +1401,7 @@
       <c r="C40" s="3">
         <v>188091</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="11">
         <v>64</v>
       </c>
       <c r="F40">
@@ -1421,7 +1421,7 @@
       <c r="C41" s="3">
         <v>45096</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="11">
         <v>64</v>
       </c>
       <c r="F41">
@@ -1441,7 +1441,7 @@
       <c r="C42" s="3">
         <v>60079</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="11">
         <v>64</v>
       </c>
       <c r="F42">
@@ -1461,7 +1461,7 @@
       <c r="C43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="11">
         <v>64</v>
       </c>
       <c r="F43">
@@ -1481,7 +1481,7 @@
       <c r="C44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="11">
         <v>64</v>
       </c>
       <c r="F44">
@@ -1501,7 +1501,7 @@
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="11">
         <v>64</v>
       </c>
       <c r="F45">
@@ -1521,7 +1521,7 @@
       <c r="C46" s="3">
         <v>135069</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="11">
         <v>64</v>
       </c>
       <c r="F46">
@@ -1541,7 +1541,7 @@
       <c r="C47" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="11">
         <v>64</v>
       </c>
       <c r="F47">
@@ -1561,7 +1561,7 @@
       <c r="C48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="11">
         <v>64</v>
       </c>
       <c r="F48">
@@ -1581,7 +1581,7 @@
       <c r="C49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="12">
         <v>32</v>
       </c>
       <c r="F49">
@@ -1601,7 +1601,7 @@
       <c r="C50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="12">
         <v>32</v>
       </c>
       <c r="F50">
@@ -1621,7 +1621,7 @@
       <c r="C51" s="3">
         <v>135069</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="12">
         <v>32</v>
       </c>
       <c r="F51">
@@ -1641,7 +1641,7 @@
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="12">
         <v>32</v>
       </c>
       <c r="F52">
@@ -1661,7 +1661,7 @@
       <c r="C53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="12">
         <v>32</v>
       </c>
       <c r="F53">
@@ -1681,7 +1681,7 @@
       <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="12">
         <v>32</v>
       </c>
       <c r="F54">
@@ -1701,7 +1701,7 @@
       <c r="C55" s="3">
         <v>60079</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="12">
         <v>32</v>
       </c>
       <c r="F55">
@@ -1721,7 +1721,7 @@
       <c r="C56" s="3">
         <v>45096</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="12">
         <v>32</v>
       </c>
       <c r="F56">
@@ -1741,7 +1741,7 @@
       <c r="C57" s="3">
         <v>188091</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="12">
         <v>32</v>
       </c>
       <c r="F57">
@@ -1761,7 +1761,7 @@
       <c r="C58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="12">
         <v>32</v>
       </c>
       <c r="F58">
@@ -1781,7 +1781,7 @@
       <c r="C59" s="3">
         <v>253036</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="12">
         <v>32</v>
       </c>
       <c r="F59">
@@ -1801,7 +1801,7 @@
       <c r="C60" s="3">
         <v>42049</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="12">
         <v>32</v>
       </c>
       <c r="F60">
@@ -1821,7 +1821,7 @@
       <c r="C61" s="3">
         <v>35070</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="12">
         <v>32</v>
       </c>
       <c r="F61">
@@ -1841,7 +1841,7 @@
       <c r="C62" s="3">
         <v>163014</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="12">
         <v>32</v>
       </c>
       <c r="F62">
@@ -1861,7 +1861,7 @@
       <c r="C63" s="3">
         <v>124084</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="12">
         <v>32</v>
       </c>
       <c r="F63">
@@ -1881,7 +1881,7 @@
       <c r="C64" s="3">
         <v>296059</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="12">
         <v>32</v>
       </c>
       <c r="F64">
@@ -1901,7 +1901,7 @@
       <c r="C65" s="3">
         <v>176035</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="12">
         <v>32</v>
       </c>
       <c r="F65">
@@ -1921,7 +1921,7 @@
       <c r="C66" s="3">
         <v>295087</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="12">
         <v>32</v>
       </c>
       <c r="F66">
@@ -1941,7 +1941,7 @@
       <c r="C67" s="3">
         <v>216066</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="12">
         <v>32</v>
       </c>
       <c r="F67">
@@ -1961,7 +1961,7 @@
       <c r="C68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="12">
         <v>32</v>
       </c>
       <c r="F68">
@@ -1981,7 +1981,7 @@
       <c r="C69" s="3">
         <v>388016</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="12">
         <v>32</v>
       </c>
       <c r="F69">
@@ -2001,7 +2001,7 @@
       <c r="C70" s="3">
         <v>225017</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="12">
         <v>32</v>
       </c>
       <c r="F70">
@@ -2021,7 +2021,7 @@
       <c r="C71" s="3">
         <v>113044</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="12">
         <v>32</v>
       </c>
       <c r="F71">
@@ -2041,7 +2041,7 @@
       <c r="C72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="12">
         <v>32</v>
       </c>
       <c r="F72">
@@ -2061,7 +2061,7 @@
       <c r="C73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="12">
         <v>32</v>
       </c>
       <c r="F73">
@@ -2081,7 +2081,7 @@
       <c r="C74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="12">
         <v>32</v>
       </c>
       <c r="F74">
@@ -2101,7 +2101,7 @@
       <c r="C75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="12">
         <v>32</v>
       </c>
       <c r="F75">
@@ -2121,7 +2121,7 @@
       <c r="C76" s="3">
         <v>135069</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="12">
         <v>32</v>
       </c>
       <c r="F76">
@@ -2141,7 +2141,7 @@
       <c r="C77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="12">
         <v>32</v>
       </c>
       <c r="F77">
@@ -2161,7 +2161,7 @@
       <c r="C78" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="12">
         <v>32</v>
       </c>
       <c r="F78">
@@ -2181,7 +2181,7 @@
       <c r="C79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="12">
         <v>32</v>
       </c>
       <c r="F79">
@@ -2201,7 +2201,7 @@
       <c r="C80" s="3">
         <v>60079</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="12">
         <v>32</v>
       </c>
       <c r="F80">
@@ -2221,7 +2221,7 @@
       <c r="C81" s="3">
         <v>45096</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="12">
         <v>32</v>
       </c>
       <c r="F81">
@@ -2241,7 +2241,7 @@
       <c r="C82" s="3">
         <v>188091</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="12">
         <v>32</v>
       </c>
       <c r="F82">
@@ -2261,7 +2261,7 @@
       <c r="C83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="12">
         <v>32</v>
       </c>
       <c r="F83">
@@ -2281,7 +2281,7 @@
       <c r="C84" s="3">
         <v>253036</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="12">
         <v>32</v>
       </c>
       <c r="F84">
@@ -2301,7 +2301,7 @@
       <c r="C85" s="3">
         <v>42049</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="12">
         <v>32</v>
       </c>
       <c r="F85">
@@ -2321,7 +2321,7 @@
       <c r="C86" s="3">
         <v>35070</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="12">
         <v>32</v>
       </c>
       <c r="F86">
@@ -2341,7 +2341,7 @@
       <c r="C87" s="3">
         <v>163014</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="12">
         <v>32</v>
       </c>
       <c r="F87">
@@ -2361,7 +2361,7 @@
       <c r="C88" s="3">
         <v>124084</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="12">
         <v>32</v>
       </c>
       <c r="F88">
@@ -2381,7 +2381,7 @@
       <c r="C89" s="3">
         <v>296059</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="12">
         <v>32</v>
       </c>
       <c r="F89">
@@ -2401,7 +2401,7 @@
       <c r="C90" s="3">
         <v>176035</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="12">
         <v>32</v>
       </c>
       <c r="F90">
@@ -2421,7 +2421,7 @@
       <c r="C91" s="3">
         <v>295087</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="12">
         <v>32</v>
       </c>
       <c r="F91">
@@ -2441,7 +2441,7 @@
       <c r="C92" s="3">
         <v>216066</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="12">
         <v>32</v>
       </c>
       <c r="F92">
@@ -2461,7 +2461,7 @@
       <c r="C93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="12">
         <v>32</v>
       </c>
       <c r="F93">
@@ -2481,7 +2481,7 @@
       <c r="C94" s="3">
         <v>388016</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="12">
         <v>32</v>
       </c>
       <c r="F94">
@@ -2501,7 +2501,7 @@
       <c r="C95" s="3">
         <v>385028</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="12">
         <v>32</v>
       </c>
       <c r="F95">
@@ -2521,7 +2521,7 @@
       <c r="C96" s="3">
         <v>225017</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="12">
         <v>32</v>
       </c>
       <c r="F96">
@@ -2541,7 +2541,7 @@
       <c r="C97" s="3">
         <v>113044</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="12">
         <v>32</v>
       </c>
       <c r="F97">
@@ -2561,7 +2561,7 @@
       <c r="C98" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="12">
         <v>32</v>
       </c>
       <c r="F98">
@@ -2581,7 +2581,7 @@
       <c r="C99" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="12">
         <v>32</v>
       </c>
       <c r="F99" s="1">
@@ -2604,7 +2604,7 @@
       <c r="D100" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="15">
+      <c r="E100" s="12">
         <v>32</v>
       </c>
       <c r="F100">
@@ -2624,7 +2624,7 @@
       <c r="C101" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E101" s="15">
+      <c r="E101" s="12">
         <v>32</v>
       </c>
       <c r="F101">
@@ -2644,7 +2644,7 @@
       <c r="C102" s="3">
         <v>135069</v>
       </c>
-      <c r="E102" s="15">
+      <c r="E102" s="12">
         <v>32</v>
       </c>
       <c r="F102">
@@ -2664,7 +2664,7 @@
       <c r="C103" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="15">
+      <c r="E103" s="12">
         <v>32</v>
       </c>
       <c r="F103">
@@ -2684,7 +2684,7 @@
       <c r="C104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="15">
+      <c r="E104" s="12">
         <v>32</v>
       </c>
       <c r="F104">
@@ -2704,7 +2704,7 @@
       <c r="C105" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="15">
+      <c r="E105" s="12">
         <v>32</v>
       </c>
       <c r="F105">
@@ -2724,7 +2724,7 @@
       <c r="C106" s="3">
         <v>60079</v>
       </c>
-      <c r="E106" s="15">
+      <c r="E106" s="12">
         <v>32</v>
       </c>
       <c r="F106">
@@ -2744,7 +2744,7 @@
       <c r="C107" s="3">
         <v>45096</v>
       </c>
-      <c r="E107" s="15">
+      <c r="E107" s="12">
         <v>32</v>
       </c>
       <c r="F107">
@@ -2764,7 +2764,7 @@
       <c r="C108" s="3">
         <v>253036</v>
       </c>
-      <c r="E108" s="15">
+      <c r="E108" s="12">
         <v>32</v>
       </c>
       <c r="F108">
@@ -2781,7 +2781,7 @@
       <c r="C109" s="3">
         <v>42049</v>
       </c>
-      <c r="E109" s="15">
+      <c r="E109" s="12">
         <v>32</v>
       </c>
       <c r="F109">
@@ -2798,7 +2798,7 @@
       <c r="C110" s="3">
         <v>35070</v>
       </c>
-      <c r="E110" s="15">
+      <c r="E110" s="12">
         <v>32</v>
       </c>
       <c r="F110">
@@ -2815,7 +2815,7 @@
       <c r="C111" s="3">
         <v>101087</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="12">
         <v>32</v>
       </c>
       <c r="F111">
@@ -2832,7 +2832,7 @@
       <c r="C112" s="3">
         <v>163014</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E112" s="12">
         <v>32</v>
       </c>
       <c r="F112">
@@ -2852,7 +2852,7 @@
       <c r="C113" s="3">
         <v>124084</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="12">
         <v>32</v>
       </c>
       <c r="F113">
@@ -2872,7 +2872,7 @@
       <c r="C114" s="3">
         <v>296059</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="12">
         <v>32</v>
       </c>
       <c r="F114">
@@ -2892,7 +2892,7 @@
       <c r="C115" s="3">
         <v>176035</v>
       </c>
-      <c r="E115" s="15">
+      <c r="E115" s="12">
         <v>32</v>
       </c>
       <c r="F115">
@@ -2912,7 +2912,7 @@
       <c r="C116" s="3">
         <v>295087</v>
       </c>
-      <c r="E116" s="15">
+      <c r="E116" s="12">
         <v>32</v>
       </c>
       <c r="F116">
@@ -2932,7 +2932,7 @@
       <c r="C117" s="3">
         <v>216066</v>
       </c>
-      <c r="E117" s="15">
+      <c r="E117" s="12">
         <v>32</v>
       </c>
       <c r="F117">
@@ -2952,7 +2952,7 @@
       <c r="C118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="15">
+      <c r="E118" s="12">
         <v>32</v>
       </c>
       <c r="F118">
@@ -2972,7 +2972,7 @@
       <c r="C119" s="3">
         <v>388016</v>
       </c>
-      <c r="E119" s="15">
+      <c r="E119" s="12">
         <v>32</v>
       </c>
       <c r="F119">
@@ -2992,7 +2992,7 @@
       <c r="C120" s="3">
         <v>385028</v>
       </c>
-      <c r="E120" s="15">
+      <c r="E120" s="12">
         <v>32</v>
       </c>
       <c r="F120">
@@ -3012,7 +3012,7 @@
       <c r="C121" s="3">
         <v>225017</v>
       </c>
-      <c r="E121" s="15">
+      <c r="E121" s="12">
         <v>32</v>
       </c>
       <c r="F121">
@@ -3032,7 +3032,7 @@
       <c r="C122" s="3">
         <v>113044</v>
       </c>
-      <c r="E122" s="15">
+      <c r="E122" s="12">
         <v>32</v>
       </c>
       <c r="F122">
@@ -3052,7 +3052,7 @@
       <c r="C123" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="15">
+      <c r="E123" s="12">
         <v>32</v>
       </c>
       <c r="F123">
@@ -3072,7 +3072,7 @@
       <c r="C124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="15">
+      <c r="E124" s="12">
         <v>32</v>
       </c>
       <c r="F124">
@@ -3092,7 +3092,7 @@
       <c r="C125" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="15">
+      <c r="E125" s="12">
         <v>32</v>
       </c>
       <c r="F125">
@@ -3106,7 +3106,7 @@
       <c r="C126" t="s">
         <v>19</v>
       </c>
-      <c r="E126" s="15">
+      <c r="E126" s="12">
         <v>64</v>
       </c>
       <c r="F126">
@@ -3120,7 +3120,7 @@
       <c r="C127">
         <v>2960592</v>
       </c>
-      <c r="E127" s="15">
+      <c r="E127" s="12">
         <v>64</v>
       </c>
       <c r="F127">
@@ -3134,7 +3134,7 @@
       <c r="C128" t="s">
         <v>26</v>
       </c>
-      <c r="E128" s="15">
+      <c r="E128" s="12">
         <v>64</v>
       </c>
       <c r="F128">
@@ -3148,7 +3148,7 @@
       <c r="C129">
         <v>135069</v>
       </c>
-      <c r="E129" s="15">
+      <c r="E129" s="12">
         <v>64</v>
       </c>
       <c r="F129">
@@ -3162,7 +3162,7 @@
       <c r="C130" t="s">
         <v>18</v>
       </c>
-      <c r="E130" s="15">
+      <c r="E130" s="12">
         <v>64</v>
       </c>
       <c r="F130">
@@ -3176,7 +3176,7 @@
       <c r="C131" t="s">
         <v>8</v>
       </c>
-      <c r="E131" s="15">
+      <c r="E131" s="12">
         <v>64</v>
       </c>
       <c r="F131">
